--- a/cms/Text.xlsx
+++ b/cms/Text.xlsx
@@ -156,7 +156,7 @@
     <t>TOUCHSCREEN-TEXT</t>
   </si>
   <si>
-    <t>&lt;h3&gt;Controls - touchscreen&lt;/h3&gt;&lt;p&gt;&lt;em&gt;Tap&lt;/em&gt; to &lt;em&gt;press X&lt;/em&gt; and &lt;em&gt;swipe&lt;/em&gt;  to simulate an &lt;em&gt;arrow keypress&lt;/em&gt;.&lt;/p&gt;&lt;p&gt;Open the tab on the left beside the game to: «CONTROLS:Load» &lt;em&gt;restart&lt;/em&gt; and &lt;em&gt;return to menu&lt;/em&gt;.&lt;/p&gt;</t>
+    <t>&lt;h3&gt;Controls - touchscreen&lt;/h3&gt;&lt;p&gt;&lt;b&gt;Tap&lt;/b&gt; to simulate &lt;em&gt;pressing X&lt;/em&gt; and &lt;b&gt;swipe&lt;/b&gt; to simulate an &lt;em&gt;arrow keypress&lt;/em&gt;.&lt;/p&gt;&lt;p&gt;Open the tab on the left beside the game to: «CONTROLS:Load» &lt;em&gt;restart&lt;/em&gt; and &lt;em&gt;return to menu&lt;/em&gt;.&lt;/p&gt;</t>
   </si>
   <si>
     <t>UNDO-TOUCH-TEXT</t>
@@ -198,7 +198,7 @@
     <t>CREDITS</t>
   </si>
   <si>
-    <t>&lt;h2&gt;Credits&lt;/h2&gt;&lt;p&gt;«TITLE:Load» by «NAME», «YEAR:Load».&lt;/p&gt;«CREDITS-MUSIC»«CREDITS-ENGINE»«PATREON-GAME»</t>
+    <t>&lt;h2&gt;Credits&lt;/h2&gt;&lt;p&gt;&lt;a href="«SITE»/«LINK:Load».html"&gt;«TITLE:Load»&lt;/a&gt; by &lt;a href="«SITE»"&gt;«NAME»&lt;/a&gt;, «YEAR:Load».&lt;/p&gt;«CREDITS-MUSIC»«CREDITS-ENGINE»«PATREON-GAME»</t>
   </si>
   <si>
     <t>CREDITS-MUSIC</t>
@@ -222,7 +222,7 @@
     <t>SOURCE-TEXT</t>
   </si>
   <si>
-    <t>&lt;p&gt;Inspect the &lt;a «BLANK» href='http://puzzlescript.net/editor.html?hack=«CONTENT:Load»'&gt;&lt;b&gt;source&lt;/b&gt;&lt;/a&gt; freely, but consider &lt;a «BLANK» href='«DONATE-LINK»'&gt;&lt;b&gt;donating&lt;/b&gt;&lt;/a&gt; if useful to you!&lt;/p&gt;</t>
+    <t>&lt;p&gt;Inspect the &lt;a «BLANK» href='http://puzzlescript.net/editor.html?hack=«CONTENT:Load»'&gt;&lt;b&gt;source&lt;/b&gt;&lt;/a&gt; freely, but consider &lt;a «BLANK» href='«DONATE-LINK»'&gt;&lt;b&gt;supporting the «SITE-NAME»&lt;/b&gt;&lt;/a&gt;!&lt;/p&gt;</t>
   </si>
   <si>
     <t>DONATE-LINK</t>

--- a/cms/Text.xlsx
+++ b/cms/Text.xlsx
@@ -204,7 +204,7 @@
     <t>CREDITS-MUSIC</t>
   </si>
   <si>
-    <t>&lt;h3&gt;Music&lt;/h3&gt;&lt;p&gt;&lt;b&gt;&lt;em&gt;«MUSIC-TITLE:Load»&lt;/b&gt;&lt;/em&gt; by &lt;a href='«MUSIC-LINK:Load»' id='music-author' «BLANK»&gt;&lt;b&gt;«MUSIC-AUTHOR:Load»&lt;/b&gt;&lt;/a&gt;.</t>
+    <t>&lt;h3&gt;Music&lt;/h3&gt;&lt;p&gt;&lt;b&gt;&lt;em&gt;«MUSIC-TITLE:Load»&lt;/em&gt;&lt;/b&gt; by &lt;a href='«MUSIC-LINK:Load»' id='music-author' «BLANK»&gt;&lt;b&gt;«MUSIC-AUTHOR:Load»&lt;/b&gt;&lt;/a&gt;.</t>
   </si>
   <si>
     <t>CREDITS-ENGINE</t>
@@ -276,7 +276,7 @@
     <t>PATREON-GAME</t>
   </si>
   <si>
-    <t>&lt;div class='patreon-b'&gt;&lt;h3&gt;Support «TITLE:Load»&lt;/h3&gt;«PATREON-BUTTON»&lt;/div&gt;</t>
+    <t>&lt;h3&gt;Support «TITLE:Load»&lt;/h3&gt;«PATREON-BECOME-SPONSOR»</t>
   </si>
   <si>
     <t>DISCORD-CHANNEL</t>
